--- a/data/trans_orig/P14B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38A16B7-5CF9-425C-B38D-3BCEC21B4AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA8B9B0-88B1-49B6-BD12-EF549EEDAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{782452E5-4BAE-4AD0-A61A-4D159A3EA7E0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86CE8405-59BF-4BD7-AF0C-F2FA115BD46B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
   <si>
     <t>Población cuyo colesterol alto le limita en 2012 (Tasa respuesta: 12,17%)</t>
   </si>
@@ -79,727 +79,718 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,76%</t>
+    <t>25,01%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>9,91%</t>
@@ -808,31 +799,28 @@
     <t>6,91%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>13,95%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>89,63%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,32%</t>
+    <t>86,05%</t>
   </si>
   <si>
     <t>93,09%</t>
@@ -841,211 +829,205 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>92,84%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>94,67%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD1D10F-FE7E-4A96-9A2A-707896660A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE9BAAC-191F-4081-AA00-00AE64227199}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1784,7 +1766,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>57303</v>
+        <v>57302</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1835,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="7">
-        <v>75036</v>
+        <v>75035</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1954,7 +1936,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>99064</v>
+        <v>99065</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2005,7 +1987,7 @@
         <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>142480</v>
+        <v>142481</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2520,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0BA26F-5996-44C3-A75A-E067B0632225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C7FFE7-96B6-451A-B2E4-F29088B9F9CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,13 +2936,13 @@
         <v>19176</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2969,13 +2951,13 @@
         <v>25688</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2984,13 +2966,13 @@
         <v>44864</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2987,13 @@
         <v>103447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -3020,13 +3002,13 @@
         <v>127563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>208</v>
@@ -3035,13 +3017,13 @@
         <v>231010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3091,13 @@
         <v>22567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3124,13 +3106,13 @@
         <v>15696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3139,13 +3121,13 @@
         <v>38263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3142,13 @@
         <v>72130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -3175,13 +3157,13 @@
         <v>72004</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -3190,13 +3172,13 @@
         <v>144134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3246,13 @@
         <v>15614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3279,13 +3261,13 @@
         <v>12492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3294,13 +3276,13 @@
         <v>28106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3297,13 @@
         <v>71987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -3330,13 +3312,13 @@
         <v>113815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -3345,13 +3327,13 @@
         <v>185802</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3401,13 @@
         <v>73465</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -3434,13 +3416,13 @@
         <v>77410</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3449,13 +3431,13 @@
         <v>150875</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3452,13 @@
         <v>315333</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>344</v>
@@ -3485,13 +3467,13 @@
         <v>391928</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>652</v>
@@ -3500,13 +3482,13 @@
         <v>707261</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24AA57A-4304-4035-873E-E9AEC65B7336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578E011-5A23-493F-B7D6-E8E9568920D2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,13 +3689,13 @@
         <v>1256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3722,13 +3704,13 @@
         <v>1813</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3737,13 +3719,13 @@
         <v>3070</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,10 +3740,10 @@
         <v>15960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3773,13 +3755,13 @@
         <v>22821</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -3788,13 +3770,13 @@
         <v>38780</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3844,13 @@
         <v>7697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3877,13 +3859,13 @@
         <v>10679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3892,13 +3874,13 @@
         <v>18376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3895,13 @@
         <v>74664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>194</v>
@@ -3928,13 +3910,13 @@
         <v>92334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -3943,13 +3925,13 @@
         <v>166998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3999,13 @@
         <v>6444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4032,13 +4014,13 @@
         <v>15896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4047,13 +4029,13 @@
         <v>22340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4050,13 @@
         <v>135149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -4083,13 +4065,13 @@
         <v>148888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
@@ -4098,13 +4080,13 @@
         <v>284037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,16 +4151,16 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>14536</v>
+        <v>14537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4187,13 +4169,13 @@
         <v>5146</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4202,13 +4184,13 @@
         <v>19683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4205,13 @@
         <v>99357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -4238,13 +4220,13 @@
         <v>209438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -4253,13 +4235,13 @@
         <v>308794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4253,7 @@
         <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>113893</v>
+        <v>113894</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4327,13 +4309,13 @@
         <v>7239</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4342,13 +4324,13 @@
         <v>18969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4357,13 +4339,13 @@
         <v>26207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4360,13 @@
         <v>131219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>303</v>
@@ -4393,13 +4375,13 @@
         <v>188951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>474</v>
@@ -4408,13 +4390,13 @@
         <v>320171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4464,13 @@
         <v>37173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -4497,13 +4479,13 @@
         <v>52503</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4512,13 +4494,13 @@
         <v>89676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4515,13 @@
         <v>456349</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>978</v>
@@ -4548,13 +4530,13 @@
         <v>662432</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>1563</v>
@@ -4563,13 +4545,13 @@
         <v>1118781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA8B9B0-88B1-49B6-BD12-EF549EEDAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296510F-191F-420E-BEB5-7C461FF71675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86CE8405-59BF-4BD7-AF0C-F2FA115BD46B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{471EAFC1-6AD2-40E9-A209-9C4CC6168325}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,01%</t>
+    <t>25,47%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>93,99%</t>
   </si>
   <si>
-    <t>74,99%</t>
+    <t>74,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,694 +115,694 @@
     <t>82,39%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>76,37%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>67,07%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>83,26%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
   </si>
   <si>
     <t>95,2%</t>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE9BAAC-191F-4081-AA00-00AE64227199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECC24B-0305-43AE-A791-D84106D78ED2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1936,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>99065</v>
+        <v>99064</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1987,7 +1987,7 @@
         <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>142481</v>
+        <v>142480</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2046,10 +2046,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2058,13 +2058,13 @@
         <v>54627</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2079,13 @@
         <v>56410</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -2094,13 +2094,13 @@
         <v>63766</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -2109,13 +2109,13 @@
         <v>120177</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2183,13 @@
         <v>19605</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2198,13 +2198,13 @@
         <v>36851</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2213,13 +2213,13 @@
         <v>56456</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2234,13 @@
         <v>85125</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -2249,13 +2249,13 @@
         <v>103700</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -2264,13 +2264,13 @@
         <v>188825</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2338,13 @@
         <v>95952</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -2353,13 +2353,13 @@
         <v>136860</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -2368,13 +2368,13 @@
         <v>232812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2389,13 @@
         <v>290719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>319</v>
@@ -2404,13 +2404,13 @@
         <v>346090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>580</v>
@@ -2419,13 +2419,13 @@
         <v>636809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C7FFE7-96B6-451A-B2E4-F29088B9F9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F6048-1FF7-4FB3-A450-48B85250574F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,13 +2626,13 @@
         <v>2987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2641,13 +2641,13 @@
         <v>936</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2656,13 +2656,13 @@
         <v>3923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>14121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2692,10 +2692,10 @@
         <v>10296</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2707,13 +2707,13 @@
         <v>24417</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>13121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2796,13 +2796,13 @@
         <v>22599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2811,13 +2811,13 @@
         <v>35719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>53648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -2847,13 +2847,13 @@
         <v>68249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -2862,13 +2862,13 @@
         <v>121898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2936,13 @@
         <v>19176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2951,13 +2951,13 @@
         <v>25688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2966,13 +2966,13 @@
         <v>44864</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>103447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -3002,7 +3002,7 @@
         <v>127563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>170</v>
@@ -3094,10 +3094,10 @@
         <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3106,13 +3106,13 @@
         <v>15696</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3121,13 +3121,13 @@
         <v>38263</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>72130</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -3157,13 +3157,13 @@
         <v>72004</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -3172,13 +3172,13 @@
         <v>144134</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3246,13 @@
         <v>15614</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3261,13 +3261,13 @@
         <v>12492</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3276,13 +3276,13 @@
         <v>28106</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>71987</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -3312,13 +3312,13 @@
         <v>113815</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -3327,13 +3327,13 @@
         <v>185802</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3401,13 @@
         <v>73465</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -3416,13 +3416,13 @@
         <v>77410</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3431,13 +3431,13 @@
         <v>150875</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3452,13 @@
         <v>315333</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>344</v>
@@ -3467,13 +3467,13 @@
         <v>391928</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>652</v>
@@ -3482,13 +3482,13 @@
         <v>707261</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578E011-5A23-493F-B7D6-E8E9568920D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E38985-46DC-405D-8391-5E5C522A5A14}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,13 +3689,13 @@
         <v>1256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3704,13 +3704,13 @@
         <v>1813</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3719,13 +3719,13 @@
         <v>3070</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,10 +3740,10 @@
         <v>15960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3755,13 +3755,13 @@
         <v>22821</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -3770,13 +3770,13 @@
         <v>38780</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3844,13 @@
         <v>7697</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3859,13 +3859,13 @@
         <v>10679</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3874,13 +3874,13 @@
         <v>18376</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,10 +3895,10 @@
         <v>74664</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>255</v>
@@ -4160,7 +4160,7 @@
         <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4208,7 +4208,7 @@
         <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>289</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
